--- a/data/trans_dic/P5_7-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_7-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de ventanas al exterior en su vivienda</t>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>88,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,87; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65,13; 98,23</t>
+          <t>39,61; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,56; 98,5</t>
+          <t>87,96; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,74; 98,53</t>
+          <t>87,92; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,2; 98,78</t>
+          <t>93,54; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,6; 97,46</t>
+          <t>60,33; 98,9</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,83; 98,77</t>
+          <t>93,59; 99,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,74</t>
+          <t>93,82; 99,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98,16; 100,0</t>
+          <t>96,65; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>97,4; 99,75</t>
+          <t>95,67; 99,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,08; 99,26</t>
+          <t>96,38; 99,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,6; 99,1</t>
+          <t>95,97; 99,14</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>97,11%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,61; 98,84</t>
+          <t>95,04; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,09; 98,5</t>
+          <t>94,87; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,45; 98,6</t>
+          <t>93,68; 98,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>92,07; 97,54</t>
+          <t>92,55; 98,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,91; 98,22</t>
+          <t>95,38; 98,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,42; 97,42</t>
+          <t>94,84; 98,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,68; 98,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,1; 97,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,67; 98,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,92; 98,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,83; 98,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,29; 97,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>98,13%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>95,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97,71%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>97,12%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>97,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>96,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>96,3; 99,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>84,49; 98,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>95,99; 98,86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>95,27; 98,55</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96,72; 98,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>90,75; 97,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>101697</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>113558</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>137111</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>216905</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>238807</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>51057; 128885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>103622; 117805</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>125259; 142474</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>206860; 221152</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>163701; 268373</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>356529</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>418382</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>386516</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>456574</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>743045</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>874955</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>342553; 363411</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>402930; 426507</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>377555; 390634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>444376; 462256</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>729257; 751662</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>857889; 886257</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>281313</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>327395</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>348104</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>411891</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>629417</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>739286</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>271738; 285922</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>315830; 332894</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>336880; 354333</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>396472; 421351</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>615717; 638699</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>722025; 751604</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>694.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>691.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>741189</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>847473</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>848178</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1005575</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1589367</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1853049</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>727316; 750175</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>753013; 877877</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>833237; 858185</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>986336; 1020339</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1570102; 1602541</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1748475; 1886466</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>